--- a/biology/Médecine/Oronzio_De_Donno_(1754_-_1806)/Oronzio_De_Donno_(1754_-_1806).xlsx
+++ b/biology/Médecine/Oronzio_De_Donno_(1754_-_1806)/Oronzio_De_Donno_(1754_-_1806).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oronzio de Donno (né à Maglie le 2 août 1754 et mort à Naples le 6 octobre 1806)  est un chirurgien obstétricien italien.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir terminé ses études scientifiques dans sa ville natale, Oronzio de Donno s'est installé à Naples où, après avoir terminé ses cours de médecine, il  devient chirurgien à l'Santa Maria del Popolo degli Incurabili[1],[2].
-De 1778 à 1783, il traduit,annotate et publie les Éléments de l'Art de collectionner les parties de Jean-Louis Baudelocque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir terminé ses études scientifiques dans sa ville natale, Oronzio de Donno s'est installé à Naples où, après avoir terminé ses cours de médecine, il  devient chirurgien à l'Santa Maria del Popolo degli Incurabili,.
+De 1778 à 1783, il traduit,annotate et publie les Éléments de l'Art de collectionner les parties de Jean-Louis Baudelocque.
 Sur les traces de J. R. Sigault, qui en 1777 avait pratiqué les premières opérations de symphysiotomie, il pratiqué à Naples entre 1787 et 1788, avec son professeur D. Ferrara, les premières opérations avec cette nouvelle technique .
-Il entra dans le « bataillon sacré  de la République  » (Cuoco) avec d'autres médecins des Incurabili, et lutte contre les bandes  sanfédistes du cardinal Fabrizio Ruffo[1].
-Il commence à écrire un deuxième ouvrage dans lequel étaient enregistrées les opérations chirurgicales et la pratique médicale et obstétrique dans les hôpitaux napolitains. Le manuscrit complet et prêt à imprimer a été perdu lors du pillage réactionnaire de juin 1799 ou confisqué par le Conseil d'Etat[2].
-Arrêté avec son neveu Nicola et d'autres personnalités de la culture napolitaines, il est condamné à l'exil par la junte de l'Etat,  se réfugie d'abord à Marseille puis à Paris[1].
+Il entra dans le « bataillon sacré  de la République  » (Cuoco) avec d'autres médecins des Incurabili, et lutte contre les bandes  sanfédistes du cardinal Fabrizio Ruffo.
+Il commence à écrire un deuxième ouvrage dans lequel étaient enregistrées les opérations chirurgicales et la pratique médicale et obstétrique dans les hôpitaux napolitains. Le manuscrit complet et prêt à imprimer a été perdu lors du pillage réactionnaire de juin 1799 ou confisqué par le Conseil d'Etat.
+Arrêté avec son neveu Nicola et d'autres personnalités de la culture napolitaines, il est condamné à l'exil par la junte de l'Etat,  se réfugie d'abord à Marseille puis à Paris.
 Il revint à Naples après l'amnistie de 1801 mais en raison d'une certaine inimitié politique, il est forcé de se retirer à Maglie où il continue à exercer comme obstétricien. Il retourne pour la dernière fois à Naples en 1804 où il continue à écrire jusqu'en 1806.
-Sa mort par apoplexie le 6 octobre 1806 ne lui permet pas de terminer son travail ni de mener à bien son projet d'organisation d'écoles d'obstétrique dans le Royaume[2].
-Oronzio De Donno a été enterré en l'église Santa Maria di Caravaggio à Naples[2]
+Sa mort par apoplexie le 6 octobre 1806 ne lui permet pas de terminer son travail ni de mener à bien son projet d'organisation d'écoles d'obstétrique dans le Royaume.
+Oronzio De Donno a été enterré en l'église Santa Maria di Caravaggio à Naples
 </t>
         </is>
       </c>
